--- a/data/trans_orig/P19C10_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7005047E-32A7-4A39-A009-CA583D5242F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9E310DC-5C05-4C86-B6C0-3C21A5988D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E09A9F8-15BC-407A-A443-1BF6D4A78871}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10E6C888-C25D-41A9-8076-7400D81D3E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="124">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -83,112 +83,118 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,16%</t>
+    <t>0,96%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>98,51%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -203,10 +209,10 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>0,24%</t>
@@ -215,7 +221,7 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,7%</t>
+    <t>0,74%</t>
   </si>
   <si>
     <t>99,34%</t>
@@ -224,16 +230,16 @@
     <t>99,58%</t>
   </si>
   <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
   </si>
   <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>99,3%</t>
+    <t>99,26%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -245,52 +251,40 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,37%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>0,63%</t>
+    <t>0,64%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,63%</t>
+    <t>98,83%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>99,37%</t>
+    <t>99,36%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>0,45%</t>
   </si>
   <si>
     <t>99,93%</t>
   </si>
   <si>
-    <t>99,54%</t>
+    <t>99,55%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -299,16 +293,13 @@
     <t>1,12%</t>
   </si>
   <si>
-    <t>2,3%</t>
+    <t>2,33%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,05%</t>
@@ -317,28 +308,25 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>1,69%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>97,7%</t>
+    <t>97,67%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>98,23%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>98,31%</t>
+    <t>98,3%</t>
   </si>
   <si>
     <t>99,42%</t>
@@ -347,28 +335,31 @@
     <t>Sevilla</t>
   </si>
   <si>
+    <t>1,22%</t>
+  </si>
+  <si>
     <t>0,73%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,51%</t>
+    <t>1,54%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>98,49%</t>
+    <t>98,46%</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -377,46 +368,43 @@
     <t>99,51%</t>
   </si>
   <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>99,0%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>0,65%</t>
+    <t>0,67%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>99,35%</t>
+    <t>99,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -831,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332AD74D-B89B-45A0-B023-F50FFE2EC331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09C915C-0F9D-47B2-90CC-1D208A88A102}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1295,13 +1283,13 @@
         <v>4034</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1319,7 +1307,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -1331,13 +1319,13 @@
         <v>354212</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7">
         <v>857</v>
@@ -1346,13 +1334,13 @@
         <v>661545</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1408,7 +1396,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1426,7 +1414,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1435,13 +1423,13 @@
         <v>1804</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1450,13 +1438,13 @@
         <v>1804</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1474,7 +1462,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1486,13 +1474,13 @@
         <v>424348</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>879</v>
@@ -1501,13 +1489,13 @@
         <v>743998</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,7 +1551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1575,13 +1563,13 @@
         <v>523</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1596,7 +1584,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1611,7 +1599,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,10 +1614,10 @@
         <v>184546</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1644,7 +1632,7 @@
         <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -1659,7 +1647,7 @@
         <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1718,7 +1706,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1736,7 +1724,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1751,7 +1739,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1784,7 +1772,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -1799,7 +1787,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -1811,10 +1799,10 @@
         <v>524631</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -1873,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1885,13 +1873,13 @@
         <v>6811</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -1900,13 +1888,13 @@
         <v>7724</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -1915,13 +1903,13 @@
         <v>14535</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1924,13 @@
         <v>600438</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="H23" s="7">
         <v>911</v>
@@ -1951,13 +1939,13 @@
         <v>773985</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="M23" s="7">
         <v>1486</v>
@@ -1966,13 +1954,13 @@
         <v>1374423</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,7 +2016,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2046,7 +2034,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2055,13 +2043,13 @@
         <v>6262</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2070,13 +2058,13 @@
         <v>8206</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,7 +2082,7 @@
         <v>35</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -2106,13 +2094,13 @@
         <v>845807</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M26" s="7">
         <v>1775</v>
@@ -2121,13 +2109,13 @@
         <v>1678148</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2183,13 @@
         <v>10734</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -2213,10 +2201,10 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="M28" s="7">
         <v>41</v>
@@ -2225,13 +2213,13 @@
         <v>32856</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2234,13 @@
         <v>3266404</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H29" s="7">
         <v>5185</v>
@@ -2264,10 +2252,10 @@
         <v>20</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>8429</v>
@@ -2276,13 +2264,13 @@
         <v>6961130</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,7 +2326,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C10_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9E310DC-5C05-4C86-B6C0-3C21A5988D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E94494-49B3-486A-B251-55576A24FF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10E6C888-C25D-41A9-8076-7400D81D3E1F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{305EE1A8-C530-45B3-AD89-0635E2F83E3E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09C915C-0F9D-47B2-90CC-1D208A88A102}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4A5C21-F195-4647-9501-C9C525CD6C92}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P19C10_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E94494-49B3-486A-B251-55576A24FF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E82DA0-7F7F-4CB7-B093-AB1F5AEBF021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{305EE1A8-C530-45B3-AD89-0635E2F83E3E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F88B9AF2-03AB-4722-872A-AE369487E36D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="128">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -83,328 +83,340 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>0,96%</t>
+    <t>1,16%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>99,33%</t>
+    <t>99,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4A5C21-F195-4647-9501-C9C525CD6C92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161617A3-693C-4DE2-AC3B-67CF0B6C72D2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1283,13 +1295,13 @@
         <v>4034</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1307,7 +1319,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -1319,13 +1331,13 @@
         <v>354212</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M11" s="7">
         <v>857</v>
@@ -1334,13 +1346,13 @@
         <v>661545</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,7 +1408,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1414,7 +1426,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1423,13 +1435,13 @@
         <v>1804</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1438,13 +1450,13 @@
         <v>1804</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,7 +1474,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1474,13 +1486,13 @@
         <v>424348</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>879</v>
@@ -1489,13 +1501,13 @@
         <v>743998</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,7 +1563,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1563,13 +1575,13 @@
         <v>523</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1584,7 +1596,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1599,7 +1611,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,10 +1626,10 @@
         <v>184546</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1632,7 +1644,7 @@
         <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -1647,7 +1659,7 @@
         <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1706,7 +1718,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1724,7 +1736,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1739,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1772,7 +1784,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -1787,7 +1799,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -1799,10 +1811,10 @@
         <v>524631</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -1861,7 +1873,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1873,13 +1885,13 @@
         <v>6811</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -1888,13 +1900,13 @@
         <v>7724</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -1903,13 +1915,13 @@
         <v>14535</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1936,13 @@
         <v>600438</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H23" s="7">
         <v>911</v>
@@ -1939,13 +1951,13 @@
         <v>773985</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="M23" s="7">
         <v>1486</v>
@@ -1954,13 +1966,13 @@
         <v>1374423</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,7 +2028,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2034,7 +2046,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2043,13 +2055,13 @@
         <v>6262</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2058,13 +2070,13 @@
         <v>8206</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,7 +2094,7 @@
         <v>35</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -2094,13 +2106,13 @@
         <v>845807</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M26" s="7">
         <v>1775</v>
@@ -2109,13 +2121,13 @@
         <v>1678148</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2195,13 @@
         <v>10734</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -2201,10 +2213,10 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="M28" s="7">
         <v>41</v>
@@ -2213,13 +2225,13 @@
         <v>32856</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2246,13 @@
         <v>3266404</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H29" s="7">
         <v>5185</v>
@@ -2252,10 +2264,10 @@
         <v>20</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="M29" s="7">
         <v>8429</v>
@@ -2264,13 +2276,13 @@
         <v>6961130</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,7 +2338,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C10_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E82DA0-7F7F-4CB7-B093-AB1F5AEBF021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C82B6B2-B03A-4680-9C09-E7CD1AB31434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F88B9AF2-03AB-4722-872A-AE369487E36D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8FEDF216-1787-4F2D-8EF3-7535F21AD423}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -80,343 +80,343 @@
     <t>0,6%</t>
   </si>
   <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>99,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -831,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161617A3-693C-4DE2-AC3B-67CF0B6C72D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892A44F4-5F75-49DD-ADAA-6E36B754601C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -967,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -982,7 +982,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1003,7 +1003,7 @@
         <v>317</v>
       </c>
       <c r="D5" s="7">
-        <v>255270</v>
+        <v>305430</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1018,7 +1018,7 @@
         <v>529</v>
       </c>
       <c r="I5" s="7">
-        <v>268748</v>
+        <v>286895</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1033,7 +1033,7 @@
         <v>846</v>
       </c>
       <c r="N5" s="7">
-        <v>524019</v>
+        <v>592325</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1054,7 +1054,7 @@
         <v>317</v>
       </c>
       <c r="D6" s="7">
-        <v>255270</v>
+        <v>305430</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -1069,7 +1069,7 @@
         <v>531</v>
       </c>
       <c r="I6" s="7">
-        <v>269444</v>
+        <v>287607</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>21</v>
@@ -1084,7 +1084,7 @@
         <v>848</v>
       </c>
       <c r="N6" s="7">
-        <v>524715</v>
+        <v>593037</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>21</v>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1456</v>
+        <v>1412</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1122,7 +1122,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1248</v>
+        <v>1147</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
@@ -1137,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>2704</v>
+        <v>2560</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>14</v>
@@ -1158,7 +1158,7 @@
         <v>370</v>
       </c>
       <c r="D8" s="7">
-        <v>506048</v>
+        <v>505572</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>33</v>
@@ -1173,7 +1173,7 @@
         <v>694</v>
       </c>
       <c r="I8" s="7">
-        <v>538846</v>
+        <v>500401</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
@@ -1188,7 +1188,7 @@
         <v>1064</v>
       </c>
       <c r="N8" s="7">
-        <v>1044894</v>
+        <v>1005972</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>22</v>
@@ -1209,7 +1209,7 @@
         <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>507504</v>
+        <v>506984</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -1224,7 +1224,7 @@
         <v>696</v>
       </c>
       <c r="I9" s="7">
-        <v>540094</v>
+        <v>501548</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -1239,7 +1239,7 @@
         <v>1067</v>
       </c>
       <c r="N9" s="7">
-        <v>1047598</v>
+        <v>1008532</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -1271,31 +1271,31 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>4034</v>
+        <v>3775</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>4034</v>
+        <v>3775</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>44</v>
@@ -1313,13 +1313,13 @@
         <v>345</v>
       </c>
       <c r="D11" s="7">
-        <v>307333</v>
+        <v>301192</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -1328,25 +1328,25 @@
         <v>512</v>
       </c>
       <c r="I11" s="7">
-        <v>354212</v>
+        <v>331500</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>857</v>
       </c>
       <c r="N11" s="7">
-        <v>661545</v>
+        <v>632692</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>50</v>
@@ -1364,7 +1364,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>307333</v>
+        <v>301192</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -1379,7 +1379,7 @@
         <v>517</v>
       </c>
       <c r="I12" s="7">
-        <v>358246</v>
+        <v>335275</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -1394,7 +1394,7 @@
         <v>862</v>
       </c>
       <c r="N12" s="7">
-        <v>665579</v>
+        <v>636467</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -1432,31 +1432,31 @@
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>1804</v>
+        <v>1647</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>1804</v>
+        <v>1647</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1468,13 +1468,13 @@
         <v>288</v>
       </c>
       <c r="D14" s="7">
-        <v>319650</v>
+        <v>310120</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1483,31 +1483,31 @@
         <v>591</v>
       </c>
       <c r="I14" s="7">
-        <v>424348</v>
+        <v>471818</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>879</v>
       </c>
       <c r="N14" s="7">
-        <v>743998</v>
+        <v>781938</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,7 +1519,7 @@
         <v>288</v>
       </c>
       <c r="D15" s="7">
-        <v>319650</v>
+        <v>310120</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -1534,7 +1534,7 @@
         <v>594</v>
       </c>
       <c r="I15" s="7">
-        <v>426152</v>
+        <v>473465</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -1549,7 +1549,7 @@
         <v>882</v>
       </c>
       <c r="N15" s="7">
-        <v>745802</v>
+        <v>783585</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1572,16 +1572,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>523</v>
+        <v>477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1596,22 +1596,22 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>523</v>
+        <v>477</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1623,13 +1623,13 @@
         <v>262</v>
       </c>
       <c r="D17" s="7">
-        <v>184546</v>
+        <v>167952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1638,13 +1638,13 @@
         <v>477</v>
       </c>
       <c r="I17" s="7">
-        <v>224925</v>
+        <v>202292</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -1653,13 +1653,13 @@
         <v>739</v>
       </c>
       <c r="N17" s="7">
-        <v>409471</v>
+        <v>370244</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1674,7 +1674,7 @@
         <v>263</v>
       </c>
       <c r="D18" s="7">
-        <v>185069</v>
+        <v>168429</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
@@ -1689,7 +1689,7 @@
         <v>477</v>
       </c>
       <c r="I18" s="7">
-        <v>224925</v>
+        <v>202292</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>21</v>
@@ -1704,7 +1704,7 @@
         <v>740</v>
       </c>
       <c r="N18" s="7">
-        <v>409994</v>
+        <v>370721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1736,37 +1736,37 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,13 +1778,13 @@
         <v>344</v>
       </c>
       <c r="D20" s="7">
-        <v>260777</v>
+        <v>253732</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -1793,10 +1793,10 @@
         <v>439</v>
       </c>
       <c r="I20" s="7">
-        <v>263854</v>
+        <v>246011</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>82</v>
@@ -1808,7 +1808,7 @@
         <v>783</v>
       </c>
       <c r="N20" s="7">
-        <v>524631</v>
+        <v>499743</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>83</v>
@@ -1829,7 +1829,7 @@
         <v>344</v>
       </c>
       <c r="D21" s="7">
-        <v>260777</v>
+        <v>253732</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -1844,7 +1844,7 @@
         <v>440</v>
       </c>
       <c r="I21" s="7">
-        <v>264208</v>
+        <v>246350</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -1859,7 +1859,7 @@
         <v>784</v>
       </c>
       <c r="N21" s="7">
-        <v>524985</v>
+        <v>500082</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -1882,46 +1882,46 @@
         <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>6811</v>
+        <v>6745</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
       </c>
       <c r="I22" s="7">
-        <v>7724</v>
+        <v>7068</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
       </c>
       <c r="N22" s="7">
-        <v>14535</v>
+        <v>13813</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,46 +1933,46 @@
         <v>575</v>
       </c>
       <c r="D23" s="7">
-        <v>600438</v>
+        <v>592950</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="H23" s="7">
         <v>911</v>
       </c>
       <c r="I23" s="7">
-        <v>773985</v>
+        <v>821297</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M23" s="7">
         <v>1486</v>
       </c>
       <c r="N23" s="7">
-        <v>1374423</v>
+        <v>1414247</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,7 +1984,7 @@
         <v>581</v>
       </c>
       <c r="D24" s="7">
-        <v>607249</v>
+        <v>599695</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
@@ -1999,7 +1999,7 @@
         <v>923</v>
       </c>
       <c r="I24" s="7">
-        <v>781709</v>
+        <v>828365</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>21</v>
@@ -2014,7 +2014,7 @@
         <v>1504</v>
       </c>
       <c r="N24" s="7">
-        <v>1388958</v>
+        <v>1428060</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>21</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2037,46 +2037,46 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>1944</v>
+        <v>1643</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>6262</v>
+        <v>5173</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>8206</v>
+        <v>6816</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2088,13 @@
         <v>743</v>
       </c>
       <c r="D26" s="7">
-        <v>832341</v>
+        <v>906996</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -2103,31 +2103,31 @@
         <v>1032</v>
       </c>
       <c r="I26" s="7">
-        <v>845807</v>
+        <v>698751</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M26" s="7">
         <v>1775</v>
       </c>
       <c r="N26" s="7">
-        <v>1678148</v>
+        <v>1605747</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,7 +2139,7 @@
         <v>744</v>
       </c>
       <c r="D27" s="7">
-        <v>834285</v>
+        <v>908639</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>21</v>
@@ -2154,7 +2154,7 @@
         <v>1039</v>
       </c>
       <c r="I27" s="7">
-        <v>852069</v>
+        <v>703924</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>21</v>
@@ -2169,7 +2169,7 @@
         <v>1783</v>
       </c>
       <c r="N27" s="7">
-        <v>1686354</v>
+        <v>1612563</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>21</v>
@@ -2192,13 +2192,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="7">
-        <v>10734</v>
+        <v>10277</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>117</v>
@@ -2207,13 +2207,13 @@
         <v>32</v>
       </c>
       <c r="I28" s="7">
-        <v>22122</v>
+        <v>19862</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>118</v>
@@ -2222,16 +2222,16 @@
         <v>41</v>
       </c>
       <c r="N28" s="7">
-        <v>32856</v>
+        <v>30139</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>119</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,46 +2243,46 @@
         <v>3244</v>
       </c>
       <c r="D29" s="7">
-        <v>3266404</v>
+        <v>3343944</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>122</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="H29" s="7">
         <v>5185</v>
       </c>
       <c r="I29" s="7">
-        <v>3694726</v>
+        <v>3558965</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M29" s="7">
         <v>8429</v>
       </c>
       <c r="N29" s="7">
-        <v>6961130</v>
+        <v>6902909</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,7 +2294,7 @@
         <v>3253</v>
       </c>
       <c r="D30" s="7">
-        <v>3277138</v>
+        <v>3354221</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>21</v>
@@ -2309,7 +2309,7 @@
         <v>5217</v>
       </c>
       <c r="I30" s="7">
-        <v>3716848</v>
+        <v>3578827</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>21</v>
@@ -2324,7 +2324,7 @@
         <v>8470</v>
       </c>
       <c r="N30" s="7">
-        <v>6993986</v>
+        <v>6933048</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>21</v>
